--- a/_guide_tt.xlsx
+++ b/_guide_tt.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
-    <sheet name="Faculty _TT " sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__xlnm.Print_Area" localSheetId="0">'Faculty _TT '!$A$1:$L$15</definedName>
+    <definedName name="__xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$15</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="38">
   <si>
     <t>12.35-1.35</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Faculty11</t>
+  </si>
+  <si>
+    <t>NOT FREE</t>
   </si>
 </sst>
 </file>
@@ -639,24 +642,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -702,6 +687,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -710,6 +698,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1007,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z979"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F169" sqref="F169"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1032,7 +1035,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="16"/>
-      <c r="B1" s="48"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="8">
         <v>1</v>
       </c>
@@ -1074,7 +1077,7 @@
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A2" s="17"/>
-      <c r="B2" s="49"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="28" t="s">
         <v>9</v>
       </c>
@@ -1117,10 +1120,10 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="57" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -1129,14 +1132,14 @@
       <c r="D3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="57"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="26" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="64"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="40" t="s">
         <v>19</v>
       </c>
@@ -1161,14 +1164,14 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="47"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="24"/>
       <c r="D4" s="23"/>
-      <c r="E4" s="58"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="64"/>
+      <c r="H4" s="59"/>
       <c r="I4" s="41"/>
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
@@ -1189,8 +1192,8 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="46" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="57" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="22" t="s">
@@ -1199,14 +1202,14 @@
       <c r="D5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="58"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="22" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="65"/>
+      <c r="H5" s="60"/>
       <c r="I5" s="40" t="s">
         <v>19</v>
       </c>
@@ -1231,16 +1234,16 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="29" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="23"/>
-      <c r="E6" s="59"/>
+      <c r="E6" s="53"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
-      <c r="H6" s="65"/>
+      <c r="H6" s="60"/>
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
       <c r="K6" s="41"/>
@@ -1261,8 +1264,8 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="62"/>
+      <c r="B7" s="57" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="22" t="s">
@@ -1278,7 +1281,7 @@
       <c r="G7" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="65"/>
+      <c r="H7" s="60"/>
       <c r="I7" s="40"/>
       <c r="J7" s="40"/>
       <c r="K7" s="40" t="s">
@@ -1303,8 +1306,8 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="47"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="24"/>
       <c r="D8" s="41" t="s">
         <v>13</v>
@@ -1312,7 +1315,7 @@
       <c r="E8" s="41"/>
       <c r="F8" s="41"/>
       <c r="G8" s="41"/>
-      <c r="H8" s="65"/>
+      <c r="H8" s="60"/>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
@@ -1333,8 +1336,8 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="46" t="s">
+      <c r="A9" s="62"/>
+      <c r="B9" s="57" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="30" t="s">
@@ -1343,14 +1346,14 @@
       <c r="D9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="60"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="22" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="65"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="40" t="s">
         <v>19</v>
       </c>
@@ -1375,16 +1378,16 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="63"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="32"/>
-      <c r="E10" s="61"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="32"/>
       <c r="G10" s="33"/>
-      <c r="H10" s="65"/>
+      <c r="H10" s="60"/>
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
@@ -1405,8 +1408,8 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" s="20" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A11" s="44"/>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="63"/>
+      <c r="B11" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -1415,14 +1418,14 @@
       <c r="D11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="61"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="64"/>
+      <c r="H11" s="59"/>
       <c r="I11" s="36" t="s">
         <v>23</v>
       </c>
@@ -1449,22 +1452,22 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A12" s="44"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="61"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="64"/>
+      <c r="H12" s="59"/>
       <c r="I12" s="40" t="s">
         <v>19</v>
       </c>
@@ -1488,16 +1491,16 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A13" s="44"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
-      <c r="E13" s="62"/>
+      <c r="E13" s="56"/>
       <c r="F13" s="32" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="33"/>
-      <c r="H13" s="64"/>
+      <c r="H13" s="59"/>
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
@@ -1517,22 +1520,22 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A14" s="44"/>
-      <c r="B14" s="52" t="s">
+      <c r="A14" s="63"/>
+      <c r="B14" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="56"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="50"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1549,18 +1552,18 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A15" s="45"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="56"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="50"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1578,7 +1581,7 @@
     </row>
     <row r="16" spans="1:26" ht="19.5" customHeight="1" thickBot="1">
       <c r="A16" s="16"/>
-      <c r="B16" s="48"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="8">
         <v>1</v>
       </c>
@@ -1608,7 +1611,7 @@
     </row>
     <row r="17" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A17" s="17"/>
-      <c r="B17" s="49"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="28" t="s">
         <v>9</v>
       </c>
@@ -1640,10 +1643,10 @@
       <c r="O17" s="20"/>
     </row>
     <row r="18" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="57" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="27" t="s">
@@ -1652,14 +1655,14 @@
       <c r="D18" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="57"/>
+      <c r="E18" s="51"/>
       <c r="F18" s="26" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="64"/>
+      <c r="H18" s="59"/>
       <c r="I18" s="40" t="s">
         <v>19</v>
       </c>
@@ -1673,14 +1676,14 @@
       <c r="O18" s="20"/>
     </row>
     <row r="19" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="47"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="27"/>
       <c r="D19" s="23"/>
-      <c r="E19" s="58"/>
+      <c r="E19" s="52"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="64"/>
+      <c r="H19" s="59"/>
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
       <c r="K19" s="41"/>
@@ -1689,8 +1692,8 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A20" s="43"/>
-      <c r="B20" s="46" t="s">
+      <c r="A20" s="62"/>
+      <c r="B20" s="57" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="22" t="s">
@@ -1699,14 +1702,14 @@
       <c r="D20" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="58"/>
+      <c r="E20" s="52"/>
       <c r="F20" s="22" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="65"/>
+      <c r="H20" s="60"/>
       <c r="I20" s="40" t="s">
         <v>19</v>
       </c>
@@ -1719,16 +1722,16 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="47"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="29" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="23"/>
-      <c r="E21" s="59"/>
+      <c r="E21" s="53"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
-      <c r="H21" s="65"/>
+      <c r="H21" s="60"/>
       <c r="I21" s="41"/>
       <c r="J21" s="41"/>
       <c r="K21" s="41"/>
@@ -1737,8 +1740,8 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A22" s="43"/>
-      <c r="B22" s="46" t="s">
+      <c r="A22" s="62"/>
+      <c r="B22" s="57" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -1754,7 +1757,7 @@
       <c r="G22" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="65"/>
+      <c r="H22" s="60"/>
       <c r="I22" s="40"/>
       <c r="J22" s="40"/>
       <c r="K22" s="40" t="s">
@@ -1767,8 +1770,8 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A23" s="43"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="27"/>
       <c r="D23" s="41" t="s">
         <v>13</v>
@@ -1776,7 +1779,7 @@
       <c r="E23" s="41"/>
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
-      <c r="H23" s="65"/>
+      <c r="H23" s="60"/>
       <c r="I23" s="41"/>
       <c r="J23" s="41"/>
       <c r="K23" s="41"/>
@@ -1785,8 +1788,8 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A24" s="43"/>
-      <c r="B24" s="46" t="s">
+      <c r="A24" s="62"/>
+      <c r="B24" s="57" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="39" t="s">
@@ -1795,14 +1798,14 @@
       <c r="D24" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="60"/>
+      <c r="E24" s="54"/>
       <c r="F24" s="22" t="s">
         <v>21</v>
       </c>
       <c r="G24" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="65"/>
+      <c r="H24" s="60"/>
       <c r="I24" s="40" t="s">
         <v>19</v>
       </c>
@@ -1815,16 +1818,16 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="63"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="32"/>
-      <c r="E25" s="61"/>
+      <c r="E25" s="55"/>
       <c r="F25" s="32"/>
       <c r="G25" s="33"/>
-      <c r="H25" s="65"/>
+      <c r="H25" s="60"/>
       <c r="I25" s="41"/>
       <c r="J25" s="41"/>
       <c r="K25" s="41"/>
@@ -1833,8 +1836,8 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A26" s="44"/>
-      <c r="B26" s="50" t="s">
+      <c r="A26" s="63"/>
+      <c r="B26" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="28" t="s">
@@ -1843,14 +1846,14 @@
       <c r="D26" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="61"/>
+      <c r="E26" s="55"/>
       <c r="F26" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="64"/>
+      <c r="H26" s="59"/>
       <c r="I26" s="36" t="s">
         <v>23</v>
       </c>
@@ -1865,22 +1868,22 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A27" s="44"/>
-      <c r="B27" s="51"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="61"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="64"/>
+      <c r="H27" s="59"/>
       <c r="I27" s="40" t="s">
         <v>19</v>
       </c>
@@ -1893,16 +1896,16 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A28" s="44"/>
-      <c r="B28" s="51"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="32"/>
       <c r="D28" s="32"/>
-      <c r="E28" s="62"/>
+      <c r="E28" s="56"/>
       <c r="F28" s="32" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="33"/>
-      <c r="H28" s="64"/>
+      <c r="H28" s="59"/>
       <c r="I28" s="41"/>
       <c r="J28" s="41"/>
       <c r="K28" s="41"/>
@@ -1911,44 +1914,44 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A29" s="44"/>
-      <c r="B29" s="52" t="s">
+      <c r="A29" s="63"/>
+      <c r="B29" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="56"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="50"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A30" s="45"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="56"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="50"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A31" s="16"/>
-      <c r="B31" s="48"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="8">
         <v>1</v>
       </c>
@@ -1978,7 +1981,7 @@
     </row>
     <row r="32" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A32" s="17"/>
-      <c r="B32" s="49"/>
+      <c r="B32" s="43"/>
       <c r="C32" s="28" t="s">
         <v>9</v>
       </c>
@@ -2009,10 +2012,10 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="57" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="27" t="s">
@@ -2021,14 +2024,14 @@
       <c r="D33" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="57"/>
+      <c r="E33" s="51"/>
       <c r="F33" s="26" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="64"/>
+      <c r="H33" s="59"/>
       <c r="I33" s="40" t="s">
         <v>19</v>
       </c>
@@ -2041,14 +2044,14 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A34" s="43"/>
-      <c r="B34" s="47"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="27"/>
       <c r="D34" s="23"/>
-      <c r="E34" s="58"/>
+      <c r="E34" s="52"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="64"/>
+      <c r="H34" s="59"/>
       <c r="I34" s="41"/>
       <c r="J34" s="41"/>
       <c r="K34" s="41"/>
@@ -2057,8 +2060,8 @@
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A35" s="43"/>
-      <c r="B35" s="46" t="s">
+      <c r="A35" s="62"/>
+      <c r="B35" s="57" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="22" t="s">
@@ -2067,14 +2070,14 @@
       <c r="D35" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="58"/>
+      <c r="E35" s="52"/>
       <c r="F35" s="22" t="s">
         <v>21</v>
       </c>
       <c r="G35" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="65"/>
+      <c r="H35" s="60"/>
       <c r="I35" s="40" t="s">
         <v>19</v>
       </c>
@@ -2087,16 +2090,16 @@
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A36" s="43"/>
-      <c r="B36" s="47"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="29" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="23"/>
-      <c r="E36" s="59"/>
+      <c r="E36" s="53"/>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
-      <c r="H36" s="65"/>
+      <c r="H36" s="60"/>
       <c r="I36" s="41"/>
       <c r="J36" s="41"/>
       <c r="K36" s="41"/>
@@ -2105,8 +2108,8 @@
       <c r="N36" s="1"/>
     </row>
     <row r="37" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A37" s="43"/>
-      <c r="B37" s="46" t="s">
+      <c r="A37" s="62"/>
+      <c r="B37" s="57" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="22" t="s">
@@ -2122,7 +2125,7 @@
       <c r="G37" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="65"/>
+      <c r="H37" s="60"/>
       <c r="I37" s="40"/>
       <c r="J37" s="40"/>
       <c r="K37" s="40" t="s">
@@ -2135,8 +2138,8 @@
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A38" s="43"/>
-      <c r="B38" s="47"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="27"/>
       <c r="D38" s="41" t="s">
         <v>13</v>
@@ -2144,7 +2147,7 @@
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
       <c r="G38" s="41"/>
-      <c r="H38" s="65"/>
+      <c r="H38" s="60"/>
       <c r="I38" s="41"/>
       <c r="J38" s="41"/>
       <c r="K38" s="41"/>
@@ -2153,8 +2156,8 @@
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A39" s="43"/>
-      <c r="B39" s="46" t="s">
+      <c r="A39" s="62"/>
+      <c r="B39" s="57" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="39" t="s">
@@ -2163,14 +2166,14 @@
       <c r="D39" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="60"/>
+      <c r="E39" s="54"/>
       <c r="F39" s="22" t="s">
         <v>21</v>
       </c>
       <c r="G39" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="65"/>
+      <c r="H39" s="60"/>
       <c r="I39" s="40" t="s">
         <v>19</v>
       </c>
@@ -2183,16 +2186,16 @@
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A40" s="43"/>
-      <c r="B40" s="63"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="58"/>
       <c r="C40" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="32"/>
-      <c r="E40" s="61"/>
+      <c r="E40" s="55"/>
       <c r="F40" s="32"/>
       <c r="G40" s="33"/>
-      <c r="H40" s="65"/>
+      <c r="H40" s="60"/>
       <c r="I40" s="41"/>
       <c r="J40" s="41"/>
       <c r="K40" s="41"/>
@@ -2201,8 +2204,8 @@
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A41" s="44"/>
-      <c r="B41" s="50" t="s">
+      <c r="A41" s="63"/>
+      <c r="B41" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="28" t="s">
@@ -2211,14 +2214,14 @@
       <c r="D41" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="61"/>
+      <c r="E41" s="55"/>
       <c r="F41" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H41" s="64"/>
+      <c r="H41" s="59"/>
       <c r="I41" s="36" t="s">
         <v>23</v>
       </c>
@@ -2233,22 +2236,22 @@
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A42" s="44"/>
-      <c r="B42" s="51"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="61"/>
+      <c r="E42" s="55"/>
       <c r="F42" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H42" s="64"/>
+      <c r="H42" s="59"/>
       <c r="I42" s="40" t="s">
         <v>19</v>
       </c>
@@ -2261,16 +2264,16 @@
       <c r="N42" s="1"/>
     </row>
     <row r="43" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A43" s="44"/>
-      <c r="B43" s="51"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="32"/>
       <c r="D43" s="32"/>
-      <c r="E43" s="62"/>
+      <c r="E43" s="56"/>
       <c r="F43" s="32" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="33"/>
-      <c r="H43" s="64"/>
+      <c r="H43" s="59"/>
       <c r="I43" s="41"/>
       <c r="J43" s="41"/>
       <c r="K43" s="41"/>
@@ -2279,44 +2282,44 @@
       <c r="N43" s="1"/>
     </row>
     <row r="44" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A44" s="44"/>
-      <c r="B44" s="52" t="s">
+      <c r="A44" s="63"/>
+      <c r="B44" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="56"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="50"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A45" s="45"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="56"/>
+      <c r="A45" s="64"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="50"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
     <row r="46" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
       <c r="A46" s="16"/>
-      <c r="B46" s="48"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="8">
         <v>1</v>
       </c>
@@ -2346,7 +2349,7 @@
     </row>
     <row r="47" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
       <c r="A47" s="17"/>
-      <c r="B47" s="49"/>
+      <c r="B47" s="43"/>
       <c r="C47" s="28" t="s">
         <v>9</v>
       </c>
@@ -2377,10 +2380,10 @@
       <c r="N47" s="1"/>
     </row>
     <row r="48" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="57" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="27" t="s">
@@ -2389,14 +2392,14 @@
       <c r="D48" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="57"/>
+      <c r="E48" s="51"/>
       <c r="F48" s="26" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H48" s="64"/>
+      <c r="H48" s="59"/>
       <c r="I48" s="40" t="s">
         <v>19</v>
       </c>
@@ -2409,14 +2412,14 @@
       <c r="N48" s="1"/>
     </row>
     <row r="49" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A49" s="43"/>
-      <c r="B49" s="47"/>
+      <c r="A49" s="62"/>
+      <c r="B49" s="65"/>
       <c r="C49" s="27"/>
       <c r="D49" s="23"/>
-      <c r="E49" s="58"/>
+      <c r="E49" s="52"/>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
-      <c r="H49" s="64"/>
+      <c r="H49" s="59"/>
       <c r="I49" s="41"/>
       <c r="J49" s="41"/>
       <c r="K49" s="41"/>
@@ -2425,8 +2428,8 @@
       <c r="N49" s="1"/>
     </row>
     <row r="50" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A50" s="43"/>
-      <c r="B50" s="46" t="s">
+      <c r="A50" s="62"/>
+      <c r="B50" s="57" t="s">
         <v>5</v>
       </c>
       <c r="C50" s="22" t="s">
@@ -2435,14 +2438,14 @@
       <c r="D50" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="58"/>
+      <c r="E50" s="52"/>
       <c r="F50" s="22" t="s">
         <v>21</v>
       </c>
       <c r="G50" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="65"/>
+      <c r="H50" s="60"/>
       <c r="I50" s="40" t="s">
         <v>19</v>
       </c>
@@ -2455,16 +2458,16 @@
       <c r="N50" s="1"/>
     </row>
     <row r="51" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A51" s="43"/>
-      <c r="B51" s="47"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="65"/>
       <c r="C51" s="29" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="23"/>
-      <c r="E51" s="59"/>
+      <c r="E51" s="53"/>
       <c r="F51" s="23"/>
       <c r="G51" s="23"/>
-      <c r="H51" s="65"/>
+      <c r="H51" s="60"/>
       <c r="I51" s="41"/>
       <c r="J51" s="41"/>
       <c r="K51" s="41"/>
@@ -2473,8 +2476,8 @@
       <c r="N51" s="1"/>
     </row>
     <row r="52" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A52" s="43"/>
-      <c r="B52" s="46" t="s">
+      <c r="A52" s="62"/>
+      <c r="B52" s="57" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="22" t="s">
@@ -2490,7 +2493,7 @@
       <c r="G52" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H52" s="65"/>
+      <c r="H52" s="60"/>
       <c r="I52" s="40"/>
       <c r="J52" s="40"/>
       <c r="K52" s="40" t="s">
@@ -2503,8 +2506,8 @@
       <c r="N52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A53" s="43"/>
-      <c r="B53" s="47"/>
+      <c r="A53" s="62"/>
+      <c r="B53" s="65"/>
       <c r="C53" s="27"/>
       <c r="D53" s="41" t="s">
         <v>13</v>
@@ -2512,7 +2515,7 @@
       <c r="E53" s="41"/>
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
-      <c r="H53" s="65"/>
+      <c r="H53" s="60"/>
       <c r="I53" s="41"/>
       <c r="J53" s="41"/>
       <c r="K53" s="41"/>
@@ -2521,8 +2524,8 @@
       <c r="N53" s="1"/>
     </row>
     <row r="54" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A54" s="43"/>
-      <c r="B54" s="46" t="s">
+      <c r="A54" s="62"/>
+      <c r="B54" s="57" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="39" t="s">
@@ -2531,14 +2534,14 @@
       <c r="D54" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E54" s="60"/>
+      <c r="E54" s="54"/>
       <c r="F54" s="22" t="s">
         <v>21</v>
       </c>
       <c r="G54" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H54" s="65"/>
+      <c r="H54" s="60"/>
       <c r="I54" s="40" t="s">
         <v>19</v>
       </c>
@@ -2551,16 +2554,16 @@
       <c r="N54" s="1"/>
     </row>
     <row r="55" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A55" s="43"/>
-      <c r="B55" s="63"/>
+      <c r="A55" s="62"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="32"/>
-      <c r="E55" s="61"/>
+      <c r="E55" s="55"/>
       <c r="F55" s="32"/>
       <c r="G55" s="33"/>
-      <c r="H55" s="65"/>
+      <c r="H55" s="60"/>
       <c r="I55" s="41"/>
       <c r="J55" s="41"/>
       <c r="K55" s="41"/>
@@ -2569,8 +2572,8 @@
       <c r="N55" s="1"/>
     </row>
     <row r="56" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A56" s="44"/>
-      <c r="B56" s="50" t="s">
+      <c r="A56" s="63"/>
+      <c r="B56" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="28" t="s">
@@ -2579,14 +2582,14 @@
       <c r="D56" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="61"/>
+      <c r="E56" s="55"/>
       <c r="F56" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G56" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H56" s="64"/>
+      <c r="H56" s="59"/>
       <c r="I56" s="36" t="s">
         <v>23</v>
       </c>
@@ -2601,22 +2604,22 @@
       <c r="N56" s="1"/>
     </row>
     <row r="57" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A57" s="44"/>
-      <c r="B57" s="51"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="45"/>
       <c r="C57" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="61"/>
+      <c r="E57" s="55"/>
       <c r="F57" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G57" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H57" s="64"/>
+      <c r="H57" s="59"/>
       <c r="I57" s="40" t="s">
         <v>19</v>
       </c>
@@ -2629,16 +2632,16 @@
       <c r="N57" s="1"/>
     </row>
     <row r="58" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A58" s="44"/>
-      <c r="B58" s="51"/>
+      <c r="A58" s="63"/>
+      <c r="B58" s="45"/>
       <c r="C58" s="32"/>
       <c r="D58" s="32"/>
-      <c r="E58" s="62"/>
+      <c r="E58" s="56"/>
       <c r="F58" s="32" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="33"/>
-      <c r="H58" s="64"/>
+      <c r="H58" s="59"/>
       <c r="I58" s="41"/>
       <c r="J58" s="41"/>
       <c r="K58" s="41"/>
@@ -2647,44 +2650,44 @@
       <c r="N58" s="1"/>
     </row>
     <row r="59" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A59" s="44"/>
-      <c r="B59" s="52" t="s">
+      <c r="A59" s="63"/>
+      <c r="B59" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="54" t="s">
+      <c r="C59" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="55"/>
-      <c r="K59" s="55"/>
-      <c r="L59" s="56"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="50"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
     <row r="60" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A60" s="45"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="55"/>
-      <c r="K60" s="55"/>
-      <c r="L60" s="56"/>
+      <c r="A60" s="64"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="50"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
     <row r="61" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
       <c r="A61" s="16"/>
-      <c r="B61" s="48"/>
+      <c r="B61" s="42"/>
       <c r="C61" s="8">
         <v>1</v>
       </c>
@@ -2714,7 +2717,7 @@
     </row>
     <row r="62" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
       <c r="A62" s="17"/>
-      <c r="B62" s="49"/>
+      <c r="B62" s="43"/>
       <c r="C62" s="28" t="s">
         <v>9</v>
       </c>
@@ -2745,10 +2748,10 @@
       <c r="N62" s="1"/>
     </row>
     <row r="63" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A63" s="42" t="s">
+      <c r="A63" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="57" t="s">
         <v>4</v>
       </c>
       <c r="C63" s="27" t="s">
@@ -2757,14 +2760,14 @@
       <c r="D63" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="57"/>
+      <c r="E63" s="51"/>
       <c r="F63" s="26" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H63" s="64"/>
+      <c r="H63" s="59"/>
       <c r="I63" s="40" t="s">
         <v>19</v>
       </c>
@@ -2777,14 +2780,14 @@
       <c r="N63" s="1"/>
     </row>
     <row r="64" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A64" s="43"/>
-      <c r="B64" s="47"/>
+      <c r="A64" s="62"/>
+      <c r="B64" s="65"/>
       <c r="C64" s="27"/>
       <c r="D64" s="23"/>
-      <c r="E64" s="58"/>
+      <c r="E64" s="52"/>
       <c r="F64" s="25"/>
       <c r="G64" s="25"/>
-      <c r="H64" s="64"/>
+      <c r="H64" s="59"/>
       <c r="I64" s="41"/>
       <c r="J64" s="41"/>
       <c r="K64" s="41"/>
@@ -2793,8 +2796,8 @@
       <c r="N64" s="1"/>
     </row>
     <row r="65" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A65" s="43"/>
-      <c r="B65" s="46" t="s">
+      <c r="A65" s="62"/>
+      <c r="B65" s="57" t="s">
         <v>5</v>
       </c>
       <c r="C65" s="22" t="s">
@@ -2803,14 +2806,14 @@
       <c r="D65" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E65" s="58"/>
+      <c r="E65" s="52"/>
       <c r="F65" s="22" t="s">
         <v>21</v>
       </c>
       <c r="G65" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H65" s="65"/>
+      <c r="H65" s="60"/>
       <c r="I65" s="40" t="s">
         <v>19</v>
       </c>
@@ -2823,16 +2826,16 @@
       <c r="N65" s="1"/>
     </row>
     <row r="66" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A66" s="43"/>
-      <c r="B66" s="47"/>
+      <c r="A66" s="62"/>
+      <c r="B66" s="65"/>
       <c r="C66" s="29" t="s">
         <v>16</v>
       </c>
       <c r="D66" s="23"/>
-      <c r="E66" s="59"/>
+      <c r="E66" s="53"/>
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
-      <c r="H66" s="65"/>
+      <c r="H66" s="60"/>
       <c r="I66" s="41"/>
       <c r="J66" s="41"/>
       <c r="K66" s="41"/>
@@ -2841,8 +2844,8 @@
       <c r="N66" s="1"/>
     </row>
     <row r="67" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A67" s="43"/>
-      <c r="B67" s="46" t="s">
+      <c r="A67" s="62"/>
+      <c r="B67" s="57" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="22" t="s">
@@ -2858,7 +2861,7 @@
       <c r="G67" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H67" s="65"/>
+      <c r="H67" s="60"/>
       <c r="I67" s="40"/>
       <c r="J67" s="40"/>
       <c r="K67" s="40" t="s">
@@ -2871,8 +2874,8 @@
       <c r="N67" s="1"/>
     </row>
     <row r="68" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A68" s="43"/>
-      <c r="B68" s="47"/>
+      <c r="A68" s="62"/>
+      <c r="B68" s="65"/>
       <c r="C68" s="27"/>
       <c r="D68" s="41" t="s">
         <v>13</v>
@@ -2880,7 +2883,7 @@
       <c r="E68" s="41"/>
       <c r="F68" s="41"/>
       <c r="G68" s="41"/>
-      <c r="H68" s="65"/>
+      <c r="H68" s="60"/>
       <c r="I68" s="41"/>
       <c r="J68" s="41"/>
       <c r="K68" s="41"/>
@@ -2889,8 +2892,8 @@
       <c r="N68" s="1"/>
     </row>
     <row r="69" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A69" s="43"/>
-      <c r="B69" s="46" t="s">
+      <c r="A69" s="62"/>
+      <c r="B69" s="57" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="39" t="s">
@@ -2899,14 +2902,14 @@
       <c r="D69" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E69" s="60"/>
+      <c r="E69" s="54"/>
       <c r="F69" s="22" t="s">
         <v>21</v>
       </c>
       <c r="G69" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H69" s="65"/>
+      <c r="H69" s="60"/>
       <c r="I69" s="40" t="s">
         <v>19</v>
       </c>
@@ -2919,16 +2922,16 @@
       <c r="N69" s="1"/>
     </row>
     <row r="70" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A70" s="43"/>
-      <c r="B70" s="63"/>
+      <c r="A70" s="62"/>
+      <c r="B70" s="58"/>
       <c r="C70" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D70" s="32"/>
-      <c r="E70" s="61"/>
+      <c r="E70" s="55"/>
       <c r="F70" s="32"/>
       <c r="G70" s="33"/>
-      <c r="H70" s="65"/>
+      <c r="H70" s="60"/>
       <c r="I70" s="41"/>
       <c r="J70" s="41"/>
       <c r="K70" s="41"/>
@@ -2937,8 +2940,8 @@
       <c r="N70" s="1"/>
     </row>
     <row r="71" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A71" s="44"/>
-      <c r="B71" s="50" t="s">
+      <c r="A71" s="63"/>
+      <c r="B71" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="28" t="s">
@@ -2947,14 +2950,14 @@
       <c r="D71" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="61"/>
+      <c r="E71" s="55"/>
       <c r="F71" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G71" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H71" s="64"/>
+      <c r="H71" s="59"/>
       <c r="I71" s="36" t="s">
         <v>23</v>
       </c>
@@ -2969,22 +2972,22 @@
       <c r="N71" s="1"/>
     </row>
     <row r="72" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A72" s="44"/>
-      <c r="B72" s="51"/>
+      <c r="A72" s="63"/>
+      <c r="B72" s="45"/>
       <c r="C72" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D72" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E72" s="61"/>
+      <c r="E72" s="55"/>
       <c r="F72" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G72" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H72" s="64"/>
+      <c r="H72" s="59"/>
       <c r="I72" s="40" t="s">
         <v>19</v>
       </c>
@@ -2997,16 +3000,16 @@
       <c r="N72" s="1"/>
     </row>
     <row r="73" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A73" s="44"/>
-      <c r="B73" s="51"/>
+      <c r="A73" s="63"/>
+      <c r="B73" s="45"/>
       <c r="C73" s="32"/>
       <c r="D73" s="32"/>
-      <c r="E73" s="62"/>
+      <c r="E73" s="56"/>
       <c r="F73" s="32" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="33"/>
-      <c r="H73" s="64"/>
+      <c r="H73" s="59"/>
       <c r="I73" s="41"/>
       <c r="J73" s="41"/>
       <c r="K73" s="41"/>
@@ -3015,44 +3018,44 @@
       <c r="N73" s="1"/>
     </row>
     <row r="74" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A74" s="44"/>
-      <c r="B74" s="52" t="s">
+      <c r="A74" s="63"/>
+      <c r="B74" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="54" t="s">
+      <c r="C74" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="55"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="55"/>
-      <c r="J74" s="55"/>
-      <c r="K74" s="55"/>
-      <c r="L74" s="56"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="49"/>
+      <c r="I74" s="49"/>
+      <c r="J74" s="49"/>
+      <c r="K74" s="49"/>
+      <c r="L74" s="50"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A75" s="45"/>
-      <c r="B75" s="53"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="55"/>
-      <c r="J75" s="55"/>
-      <c r="K75" s="55"/>
-      <c r="L75" s="56"/>
+      <c r="A75" s="64"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="49"/>
+      <c r="K75" s="49"/>
+      <c r="L75" s="50"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
     <row r="76" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
       <c r="A76" s="16"/>
-      <c r="B76" s="48"/>
+      <c r="B76" s="42"/>
       <c r="C76" s="8">
         <v>1</v>
       </c>
@@ -3082,7 +3085,7 @@
     </row>
     <row r="77" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
       <c r="A77" s="17"/>
-      <c r="B77" s="49"/>
+      <c r="B77" s="43"/>
       <c r="C77" s="28" t="s">
         <v>9</v>
       </c>
@@ -3113,10 +3116,10 @@
       <c r="N77" s="1"/>
     </row>
     <row r="78" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A78" s="42" t="s">
+      <c r="A78" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B78" s="46" t="s">
+      <c r="B78" s="57" t="s">
         <v>4</v>
       </c>
       <c r="C78" s="27" t="s">
@@ -3125,14 +3128,14 @@
       <c r="D78" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E78" s="57"/>
+      <c r="E78" s="51"/>
       <c r="F78" s="26" t="s">
         <v>15</v>
       </c>
       <c r="G78" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H78" s="64"/>
+      <c r="H78" s="59"/>
       <c r="I78" s="40" t="s">
         <v>19</v>
       </c>
@@ -3145,14 +3148,14 @@
       <c r="N78" s="1"/>
     </row>
     <row r="79" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A79" s="43"/>
-      <c r="B79" s="47"/>
+      <c r="A79" s="62"/>
+      <c r="B79" s="65"/>
       <c r="C79" s="27"/>
       <c r="D79" s="23"/>
-      <c r="E79" s="58"/>
+      <c r="E79" s="52"/>
       <c r="F79" s="25"/>
       <c r="G79" s="25"/>
-      <c r="H79" s="64"/>
+      <c r="H79" s="59"/>
       <c r="I79" s="41"/>
       <c r="J79" s="41"/>
       <c r="K79" s="41"/>
@@ -3161,8 +3164,8 @@
       <c r="N79" s="1"/>
     </row>
     <row r="80" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A80" s="43"/>
-      <c r="B80" s="46" t="s">
+      <c r="A80" s="62"/>
+      <c r="B80" s="57" t="s">
         <v>5</v>
       </c>
       <c r="C80" s="22" t="s">
@@ -3171,14 +3174,14 @@
       <c r="D80" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E80" s="58"/>
+      <c r="E80" s="52"/>
       <c r="F80" s="22" t="s">
         <v>21</v>
       </c>
       <c r="G80" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H80" s="65"/>
+      <c r="H80" s="60"/>
       <c r="I80" s="40" t="s">
         <v>19</v>
       </c>
@@ -3191,16 +3194,16 @@
       <c r="N80" s="1"/>
     </row>
     <row r="81" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A81" s="43"/>
-      <c r="B81" s="47"/>
+      <c r="A81" s="62"/>
+      <c r="B81" s="65"/>
       <c r="C81" s="29" t="s">
         <v>16</v>
       </c>
       <c r="D81" s="23"/>
-      <c r="E81" s="59"/>
+      <c r="E81" s="53"/>
       <c r="F81" s="23"/>
       <c r="G81" s="23"/>
-      <c r="H81" s="65"/>
+      <c r="H81" s="60"/>
       <c r="I81" s="41"/>
       <c r="J81" s="41"/>
       <c r="K81" s="41"/>
@@ -3209,8 +3212,8 @@
       <c r="N81" s="1"/>
     </row>
     <row r="82" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A82" s="43"/>
-      <c r="B82" s="46" t="s">
+      <c r="A82" s="62"/>
+      <c r="B82" s="57" t="s">
         <v>6</v>
       </c>
       <c r="C82" s="22" t="s">
@@ -3226,7 +3229,7 @@
       <c r="G82" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H82" s="65"/>
+      <c r="H82" s="60"/>
       <c r="I82" s="40"/>
       <c r="J82" s="40"/>
       <c r="K82" s="40" t="s">
@@ -3239,8 +3242,8 @@
       <c r="N82" s="1"/>
     </row>
     <row r="83" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A83" s="43"/>
-      <c r="B83" s="47"/>
+      <c r="A83" s="62"/>
+      <c r="B83" s="65"/>
       <c r="C83" s="27"/>
       <c r="D83" s="41" t="s">
         <v>13</v>
@@ -3248,7 +3251,7 @@
       <c r="E83" s="41"/>
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
-      <c r="H83" s="65"/>
+      <c r="H83" s="60"/>
       <c r="I83" s="41"/>
       <c r="J83" s="41"/>
       <c r="K83" s="41"/>
@@ -3257,8 +3260,8 @@
       <c r="N83" s="1"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A84" s="43"/>
-      <c r="B84" s="46" t="s">
+      <c r="A84" s="62"/>
+      <c r="B84" s="57" t="s">
         <v>7</v>
       </c>
       <c r="C84" s="39" t="s">
@@ -3267,14 +3270,14 @@
       <c r="D84" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E84" s="60"/>
+      <c r="E84" s="54"/>
       <c r="F84" s="22" t="s">
         <v>21</v>
       </c>
       <c r="G84" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H84" s="65"/>
+      <c r="H84" s="60"/>
       <c r="I84" s="40" t="s">
         <v>19</v>
       </c>
@@ -3287,16 +3290,16 @@
       <c r="N84" s="1"/>
     </row>
     <row r="85" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A85" s="43"/>
-      <c r="B85" s="63"/>
+      <c r="A85" s="62"/>
+      <c r="B85" s="58"/>
       <c r="C85" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D85" s="32"/>
-      <c r="E85" s="61"/>
+      <c r="E85" s="55"/>
       <c r="F85" s="32"/>
       <c r="G85" s="33"/>
-      <c r="H85" s="65"/>
+      <c r="H85" s="60"/>
       <c r="I85" s="41"/>
       <c r="J85" s="41"/>
       <c r="K85" s="41"/>
@@ -3305,8 +3308,8 @@
       <c r="N85" s="1"/>
     </row>
     <row r="86" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A86" s="44"/>
-      <c r="B86" s="50" t="s">
+      <c r="A86" s="63"/>
+      <c r="B86" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="28" t="s">
@@ -3315,14 +3318,14 @@
       <c r="D86" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="61"/>
+      <c r="E86" s="55"/>
       <c r="F86" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G86" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H86" s="64"/>
+      <c r="H86" s="59"/>
       <c r="I86" s="36" t="s">
         <v>23</v>
       </c>
@@ -3337,22 +3340,22 @@
       <c r="N86" s="1"/>
     </row>
     <row r="87" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A87" s="44"/>
-      <c r="B87" s="51"/>
+      <c r="A87" s="63"/>
+      <c r="B87" s="45"/>
       <c r="C87" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D87" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E87" s="61"/>
+      <c r="E87" s="55"/>
       <c r="F87" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G87" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H87" s="64"/>
+      <c r="H87" s="59"/>
       <c r="I87" s="40" t="s">
         <v>19</v>
       </c>
@@ -3365,16 +3368,16 @@
       <c r="N87" s="1"/>
     </row>
     <row r="88" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A88" s="44"/>
-      <c r="B88" s="51"/>
+      <c r="A88" s="63"/>
+      <c r="B88" s="45"/>
       <c r="C88" s="32"/>
       <c r="D88" s="32"/>
-      <c r="E88" s="62"/>
+      <c r="E88" s="56"/>
       <c r="F88" s="32" t="s">
         <v>16</v>
       </c>
       <c r="G88" s="33"/>
-      <c r="H88" s="64"/>
+      <c r="H88" s="59"/>
       <c r="I88" s="41"/>
       <c r="J88" s="41"/>
       <c r="K88" s="41"/>
@@ -3383,44 +3386,44 @@
       <c r="N88" s="1"/>
     </row>
     <row r="89" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A89" s="44"/>
-      <c r="B89" s="52" t="s">
+      <c r="A89" s="63"/>
+      <c r="B89" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C89" s="54" t="s">
+      <c r="C89" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D89" s="55"/>
-      <c r="E89" s="55"/>
-      <c r="F89" s="55"/>
-      <c r="G89" s="55"/>
-      <c r="H89" s="55"/>
-      <c r="I89" s="55"/>
-      <c r="J89" s="55"/>
-      <c r="K89" s="55"/>
-      <c r="L89" s="56"/>
+      <c r="D89" s="49"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="49"/>
+      <c r="G89" s="49"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="49"/>
+      <c r="J89" s="49"/>
+      <c r="K89" s="49"/>
+      <c r="L89" s="50"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
     <row r="90" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A90" s="45"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="55"/>
-      <c r="E90" s="55"/>
-      <c r="F90" s="55"/>
-      <c r="G90" s="55"/>
-      <c r="H90" s="55"/>
-      <c r="I90" s="55"/>
-      <c r="J90" s="55"/>
-      <c r="K90" s="55"/>
-      <c r="L90" s="56"/>
+      <c r="A90" s="64"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="49"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="49"/>
+      <c r="H90" s="49"/>
+      <c r="I90" s="49"/>
+      <c r="J90" s="49"/>
+      <c r="K90" s="49"/>
+      <c r="L90" s="50"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
     <row r="91" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
       <c r="A91" s="16"/>
-      <c r="B91" s="48"/>
+      <c r="B91" s="42"/>
       <c r="C91" s="8">
         <v>1</v>
       </c>
@@ -3450,7 +3453,7 @@
     </row>
     <row r="92" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
       <c r="A92" s="17"/>
-      <c r="B92" s="49"/>
+      <c r="B92" s="43"/>
       <c r="C92" s="28" t="s">
         <v>9</v>
       </c>
@@ -3481,10 +3484,10 @@
       <c r="N92" s="1"/>
     </row>
     <row r="93" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A93" s="42" t="s">
+      <c r="A93" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B93" s="46" t="s">
+      <c r="B93" s="57" t="s">
         <v>4</v>
       </c>
       <c r="C93" s="27" t="s">
@@ -3493,14 +3496,14 @@
       <c r="D93" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E93" s="57"/>
+      <c r="E93" s="51"/>
       <c r="F93" s="26" t="s">
         <v>15</v>
       </c>
       <c r="G93" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H93" s="64"/>
+      <c r="H93" s="59"/>
       <c r="I93" s="40" t="s">
         <v>19</v>
       </c>
@@ -3513,14 +3516,14 @@
       <c r="N93" s="1"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A94" s="43"/>
-      <c r="B94" s="47"/>
+      <c r="A94" s="62"/>
+      <c r="B94" s="65"/>
       <c r="C94" s="27"/>
       <c r="D94" s="23"/>
-      <c r="E94" s="58"/>
+      <c r="E94" s="52"/>
       <c r="F94" s="25"/>
       <c r="G94" s="25"/>
-      <c r="H94" s="64"/>
+      <c r="H94" s="59"/>
       <c r="I94" s="41"/>
       <c r="J94" s="41"/>
       <c r="K94" s="41"/>
@@ -3529,8 +3532,8 @@
       <c r="N94" s="1"/>
     </row>
     <row r="95" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A95" s="43"/>
-      <c r="B95" s="46" t="s">
+      <c r="A95" s="62"/>
+      <c r="B95" s="57" t="s">
         <v>5</v>
       </c>
       <c r="C95" s="22" t="s">
@@ -3539,14 +3542,14 @@
       <c r="D95" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E95" s="58"/>
+      <c r="E95" s="52"/>
       <c r="F95" s="22" t="s">
         <v>21</v>
       </c>
       <c r="G95" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H95" s="65"/>
+      <c r="H95" s="60"/>
       <c r="I95" s="40" t="s">
         <v>19</v>
       </c>
@@ -3559,16 +3562,16 @@
       <c r="N95" s="1"/>
     </row>
     <row r="96" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A96" s="43"/>
-      <c r="B96" s="47"/>
+      <c r="A96" s="62"/>
+      <c r="B96" s="65"/>
       <c r="C96" s="29" t="s">
         <v>16</v>
       </c>
       <c r="D96" s="23"/>
-      <c r="E96" s="59"/>
+      <c r="E96" s="53"/>
       <c r="F96" s="23"/>
       <c r="G96" s="23"/>
-      <c r="H96" s="65"/>
+      <c r="H96" s="60"/>
       <c r="I96" s="41"/>
       <c r="J96" s="41"/>
       <c r="K96" s="41"/>
@@ -3577,8 +3580,8 @@
       <c r="N96" s="1"/>
     </row>
     <row r="97" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A97" s="43"/>
-      <c r="B97" s="46" t="s">
+      <c r="A97" s="62"/>
+      <c r="B97" s="57" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="22" t="s">
@@ -3594,7 +3597,7 @@
       <c r="G97" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H97" s="65"/>
+      <c r="H97" s="60"/>
       <c r="I97" s="40"/>
       <c r="J97" s="40"/>
       <c r="K97" s="40" t="s">
@@ -3607,8 +3610,8 @@
       <c r="N97" s="1"/>
     </row>
     <row r="98" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A98" s="43"/>
-      <c r="B98" s="47"/>
+      <c r="A98" s="62"/>
+      <c r="B98" s="65"/>
       <c r="C98" s="27"/>
       <c r="D98" s="41" t="s">
         <v>13</v>
@@ -3616,7 +3619,7 @@
       <c r="E98" s="41"/>
       <c r="F98" s="41"/>
       <c r="G98" s="41"/>
-      <c r="H98" s="65"/>
+      <c r="H98" s="60"/>
       <c r="I98" s="41"/>
       <c r="J98" s="41"/>
       <c r="K98" s="41"/>
@@ -3625,8 +3628,8 @@
       <c r="N98" s="1"/>
     </row>
     <row r="99" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A99" s="43"/>
-      <c r="B99" s="46" t="s">
+      <c r="A99" s="62"/>
+      <c r="B99" s="57" t="s">
         <v>7</v>
       </c>
       <c r="C99" s="39" t="s">
@@ -3635,14 +3638,14 @@
       <c r="D99" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E99" s="60"/>
+      <c r="E99" s="54"/>
       <c r="F99" s="22" t="s">
         <v>21</v>
       </c>
       <c r="G99" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H99" s="65"/>
+      <c r="H99" s="60"/>
       <c r="I99" s="40" t="s">
         <v>19</v>
       </c>
@@ -3655,16 +3658,16 @@
       <c r="N99" s="1"/>
     </row>
     <row r="100" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A100" s="43"/>
-      <c r="B100" s="63"/>
+      <c r="A100" s="62"/>
+      <c r="B100" s="58"/>
       <c r="C100" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D100" s="32"/>
-      <c r="E100" s="61"/>
+      <c r="E100" s="55"/>
       <c r="F100" s="32"/>
       <c r="G100" s="33"/>
-      <c r="H100" s="65"/>
+      <c r="H100" s="60"/>
       <c r="I100" s="41"/>
       <c r="J100" s="41"/>
       <c r="K100" s="41"/>
@@ -3673,8 +3676,8 @@
       <c r="N100" s="1"/>
     </row>
     <row r="101" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A101" s="44"/>
-      <c r="B101" s="50" t="s">
+      <c r="A101" s="63"/>
+      <c r="B101" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="28" t="s">
@@ -3683,14 +3686,14 @@
       <c r="D101" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E101" s="61"/>
+      <c r="E101" s="55"/>
       <c r="F101" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G101" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H101" s="64"/>
+      <c r="H101" s="59"/>
       <c r="I101" s="36" t="s">
         <v>23</v>
       </c>
@@ -3705,22 +3708,22 @@
       <c r="N101" s="1"/>
     </row>
     <row r="102" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A102" s="44"/>
-      <c r="B102" s="51"/>
+      <c r="A102" s="63"/>
+      <c r="B102" s="45"/>
       <c r="C102" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D102" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E102" s="61"/>
+      <c r="E102" s="55"/>
       <c r="F102" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G102" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H102" s="64"/>
+      <c r="H102" s="59"/>
       <c r="I102" s="40" t="s">
         <v>19</v>
       </c>
@@ -3733,16 +3736,16 @@
       <c r="N102" s="1"/>
     </row>
     <row r="103" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A103" s="44"/>
-      <c r="B103" s="51"/>
+      <c r="A103" s="63"/>
+      <c r="B103" s="45"/>
       <c r="C103" s="32"/>
       <c r="D103" s="32"/>
-      <c r="E103" s="62"/>
+      <c r="E103" s="56"/>
       <c r="F103" s="32" t="s">
         <v>16</v>
       </c>
       <c r="G103" s="33"/>
-      <c r="H103" s="64"/>
+      <c r="H103" s="59"/>
       <c r="I103" s="41"/>
       <c r="J103" s="41"/>
       <c r="K103" s="41"/>
@@ -3751,44 +3754,44 @@
       <c r="N103" s="1"/>
     </row>
     <row r="104" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A104" s="44"/>
-      <c r="B104" s="52" t="s">
+      <c r="A104" s="63"/>
+      <c r="B104" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C104" s="54" t="s">
+      <c r="C104" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="55"/>
-      <c r="E104" s="55"/>
-      <c r="F104" s="55"/>
-      <c r="G104" s="55"/>
-      <c r="H104" s="55"/>
-      <c r="I104" s="55"/>
-      <c r="J104" s="55"/>
-      <c r="K104" s="55"/>
-      <c r="L104" s="56"/>
+      <c r="D104" s="49"/>
+      <c r="E104" s="49"/>
+      <c r="F104" s="49"/>
+      <c r="G104" s="49"/>
+      <c r="H104" s="49"/>
+      <c r="I104" s="49"/>
+      <c r="J104" s="49"/>
+      <c r="K104" s="49"/>
+      <c r="L104" s="50"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
     <row r="105" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A105" s="45"/>
-      <c r="B105" s="53"/>
-      <c r="C105" s="55"/>
-      <c r="D105" s="55"/>
-      <c r="E105" s="55"/>
-      <c r="F105" s="55"/>
-      <c r="G105" s="55"/>
-      <c r="H105" s="55"/>
-      <c r="I105" s="55"/>
-      <c r="J105" s="55"/>
-      <c r="K105" s="55"/>
-      <c r="L105" s="56"/>
+      <c r="A105" s="64"/>
+      <c r="B105" s="47"/>
+      <c r="C105" s="49"/>
+      <c r="D105" s="49"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="49"/>
+      <c r="G105" s="49"/>
+      <c r="H105" s="49"/>
+      <c r="I105" s="49"/>
+      <c r="J105" s="49"/>
+      <c r="K105" s="49"/>
+      <c r="L105" s="50"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
     <row r="106" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
       <c r="A106" s="16"/>
-      <c r="B106" s="48"/>
+      <c r="B106" s="42"/>
       <c r="C106" s="8">
         <v>1</v>
       </c>
@@ -3818,7 +3821,7 @@
     </row>
     <row r="107" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
       <c r="A107" s="17"/>
-      <c r="B107" s="49"/>
+      <c r="B107" s="43"/>
       <c r="C107" s="28" t="s">
         <v>9</v>
       </c>
@@ -3849,10 +3852,10 @@
       <c r="N107" s="1"/>
     </row>
     <row r="108" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A108" s="42" t="s">
+      <c r="A108" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B108" s="46" t="s">
+      <c r="B108" s="57" t="s">
         <v>4</v>
       </c>
       <c r="C108" s="27" t="s">
@@ -3861,14 +3864,14 @@
       <c r="D108" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E108" s="57"/>
+      <c r="E108" s="51"/>
       <c r="F108" s="26" t="s">
         <v>15</v>
       </c>
       <c r="G108" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H108" s="64"/>
+      <c r="H108" s="59"/>
       <c r="I108" s="40" t="s">
         <v>19</v>
       </c>
@@ -3881,14 +3884,14 @@
       <c r="N108" s="1"/>
     </row>
     <row r="109" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A109" s="43"/>
-      <c r="B109" s="47"/>
+      <c r="A109" s="62"/>
+      <c r="B109" s="65"/>
       <c r="C109" s="27"/>
       <c r="D109" s="23"/>
-      <c r="E109" s="58"/>
+      <c r="E109" s="52"/>
       <c r="F109" s="25"/>
       <c r="G109" s="25"/>
-      <c r="H109" s="64"/>
+      <c r="H109" s="59"/>
       <c r="I109" s="41"/>
       <c r="J109" s="41"/>
       <c r="K109" s="41"/>
@@ -3897,8 +3900,8 @@
       <c r="N109" s="1"/>
     </row>
     <row r="110" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A110" s="43"/>
-      <c r="B110" s="46" t="s">
+      <c r="A110" s="62"/>
+      <c r="B110" s="57" t="s">
         <v>5</v>
       </c>
       <c r="C110" s="22" t="s">
@@ -3907,14 +3910,14 @@
       <c r="D110" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E110" s="58"/>
+      <c r="E110" s="52"/>
       <c r="F110" s="22" t="s">
         <v>21</v>
       </c>
       <c r="G110" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H110" s="65"/>
+      <c r="H110" s="60"/>
       <c r="I110" s="40" t="s">
         <v>19</v>
       </c>
@@ -3927,16 +3930,16 @@
       <c r="N110" s="1"/>
     </row>
     <row r="111" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A111" s="43"/>
-      <c r="B111" s="47"/>
+      <c r="A111" s="62"/>
+      <c r="B111" s="65"/>
       <c r="C111" s="29" t="s">
         <v>16</v>
       </c>
       <c r="D111" s="23"/>
-      <c r="E111" s="59"/>
+      <c r="E111" s="53"/>
       <c r="F111" s="23"/>
       <c r="G111" s="23"/>
-      <c r="H111" s="65"/>
+      <c r="H111" s="60"/>
       <c r="I111" s="41"/>
       <c r="J111" s="41"/>
       <c r="K111" s="41"/>
@@ -3945,8 +3948,8 @@
       <c r="N111" s="1"/>
     </row>
     <row r="112" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A112" s="43"/>
-      <c r="B112" s="46" t="s">
+      <c r="A112" s="62"/>
+      <c r="B112" s="57" t="s">
         <v>6</v>
       </c>
       <c r="C112" s="22" t="s">
@@ -3962,7 +3965,7 @@
       <c r="G112" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H112" s="65"/>
+      <c r="H112" s="60"/>
       <c r="I112" s="40"/>
       <c r="J112" s="40"/>
       <c r="K112" s="40" t="s">
@@ -3975,8 +3978,8 @@
       <c r="N112" s="1"/>
     </row>
     <row r="113" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A113" s="43"/>
-      <c r="B113" s="47"/>
+      <c r="A113" s="62"/>
+      <c r="B113" s="65"/>
       <c r="C113" s="27"/>
       <c r="D113" s="41" t="s">
         <v>13</v>
@@ -3984,7 +3987,7 @@
       <c r="E113" s="41"/>
       <c r="F113" s="41"/>
       <c r="G113" s="41"/>
-      <c r="H113" s="65"/>
+      <c r="H113" s="60"/>
       <c r="I113" s="41"/>
       <c r="J113" s="41"/>
       <c r="K113" s="41"/>
@@ -3993,8 +3996,8 @@
       <c r="N113" s="1"/>
     </row>
     <row r="114" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A114" s="43"/>
-      <c r="B114" s="46" t="s">
+      <c r="A114" s="62"/>
+      <c r="B114" s="57" t="s">
         <v>7</v>
       </c>
       <c r="C114" s="39" t="s">
@@ -4003,14 +4006,14 @@
       <c r="D114" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E114" s="60"/>
+      <c r="E114" s="54"/>
       <c r="F114" s="22" t="s">
         <v>21</v>
       </c>
       <c r="G114" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H114" s="65"/>
+      <c r="H114" s="60"/>
       <c r="I114" s="40" t="s">
         <v>19</v>
       </c>
@@ -4023,16 +4026,16 @@
       <c r="N114" s="1"/>
     </row>
     <row r="115" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A115" s="43"/>
-      <c r="B115" s="63"/>
+      <c r="A115" s="62"/>
+      <c r="B115" s="58"/>
       <c r="C115" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D115" s="32"/>
-      <c r="E115" s="61"/>
+      <c r="E115" s="55"/>
       <c r="F115" s="32"/>
       <c r="G115" s="33"/>
-      <c r="H115" s="65"/>
+      <c r="H115" s="60"/>
       <c r="I115" s="41"/>
       <c r="J115" s="41"/>
       <c r="K115" s="41"/>
@@ -4041,8 +4044,8 @@
       <c r="N115" s="1"/>
     </row>
     <row r="116" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A116" s="44"/>
-      <c r="B116" s="50" t="s">
+      <c r="A116" s="63"/>
+      <c r="B116" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C116" s="28" t="s">
@@ -4051,14 +4054,14 @@
       <c r="D116" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E116" s="61"/>
+      <c r="E116" s="55"/>
       <c r="F116" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G116" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H116" s="64"/>
+      <c r="H116" s="59"/>
       <c r="I116" s="36" t="s">
         <v>23</v>
       </c>
@@ -4073,22 +4076,22 @@
       <c r="N116" s="1"/>
     </row>
     <row r="117" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A117" s="44"/>
-      <c r="B117" s="51"/>
+      <c r="A117" s="63"/>
+      <c r="B117" s="45"/>
       <c r="C117" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D117" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E117" s="61"/>
+      <c r="E117" s="55"/>
       <c r="F117" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G117" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H117" s="64"/>
+      <c r="H117" s="59"/>
       <c r="I117" s="40" t="s">
         <v>19</v>
       </c>
@@ -4101,16 +4104,16 @@
       <c r="N117" s="1"/>
     </row>
     <row r="118" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A118" s="44"/>
-      <c r="B118" s="51"/>
+      <c r="A118" s="63"/>
+      <c r="B118" s="45"/>
       <c r="C118" s="32"/>
       <c r="D118" s="32"/>
-      <c r="E118" s="62"/>
+      <c r="E118" s="56"/>
       <c r="F118" s="32" t="s">
         <v>16</v>
       </c>
       <c r="G118" s="33"/>
-      <c r="H118" s="64"/>
+      <c r="H118" s="59"/>
       <c r="I118" s="41"/>
       <c r="J118" s="41"/>
       <c r="K118" s="41"/>
@@ -4119,44 +4122,44 @@
       <c r="N118" s="1"/>
     </row>
     <row r="119" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A119" s="44"/>
-      <c r="B119" s="52" t="s">
+      <c r="A119" s="63"/>
+      <c r="B119" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C119" s="54" t="s">
+      <c r="C119" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D119" s="55"/>
-      <c r="E119" s="55"/>
-      <c r="F119" s="55"/>
-      <c r="G119" s="55"/>
-      <c r="H119" s="55"/>
-      <c r="I119" s="55"/>
-      <c r="J119" s="55"/>
-      <c r="K119" s="55"/>
-      <c r="L119" s="56"/>
+      <c r="D119" s="49"/>
+      <c r="E119" s="49"/>
+      <c r="F119" s="49"/>
+      <c r="G119" s="49"/>
+      <c r="H119" s="49"/>
+      <c r="I119" s="49"/>
+      <c r="J119" s="49"/>
+      <c r="K119" s="49"/>
+      <c r="L119" s="50"/>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
     <row r="120" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A120" s="45"/>
-      <c r="B120" s="53"/>
-      <c r="C120" s="55"/>
-      <c r="D120" s="55"/>
-      <c r="E120" s="55"/>
-      <c r="F120" s="55"/>
-      <c r="G120" s="55"/>
-      <c r="H120" s="55"/>
-      <c r="I120" s="55"/>
-      <c r="J120" s="55"/>
-      <c r="K120" s="55"/>
-      <c r="L120" s="56"/>
+      <c r="A120" s="64"/>
+      <c r="B120" s="47"/>
+      <c r="C120" s="49"/>
+      <c r="D120" s="49"/>
+      <c r="E120" s="49"/>
+      <c r="F120" s="49"/>
+      <c r="G120" s="49"/>
+      <c r="H120" s="49"/>
+      <c r="I120" s="49"/>
+      <c r="J120" s="49"/>
+      <c r="K120" s="49"/>
+      <c r="L120" s="50"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
     <row r="121" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
       <c r="A121" s="16"/>
-      <c r="B121" s="48"/>
+      <c r="B121" s="42"/>
       <c r="C121" s="8">
         <v>1</v>
       </c>
@@ -4186,7 +4189,7 @@
     </row>
     <row r="122" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
       <c r="A122" s="17"/>
-      <c r="B122" s="49"/>
+      <c r="B122" s="43"/>
       <c r="C122" s="28" t="s">
         <v>9</v>
       </c>
@@ -4217,10 +4220,10 @@
       <c r="N122" s="1"/>
     </row>
     <row r="123" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A123" s="42" t="s">
+      <c r="A123" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="B123" s="46" t="s">
+      <c r="B123" s="57" t="s">
         <v>4</v>
       </c>
       <c r="C123" s="27" t="s">
@@ -4229,14 +4232,14 @@
       <c r="D123" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E123" s="57"/>
+      <c r="E123" s="51"/>
       <c r="F123" s="26" t="s">
         <v>15</v>
       </c>
       <c r="G123" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H123" s="64"/>
+      <c r="H123" s="59"/>
       <c r="I123" s="40" t="s">
         <v>19</v>
       </c>
@@ -4249,14 +4252,14 @@
       <c r="N123" s="1"/>
     </row>
     <row r="124" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A124" s="43"/>
-      <c r="B124" s="47"/>
+      <c r="A124" s="62"/>
+      <c r="B124" s="65"/>
       <c r="C124" s="27"/>
       <c r="D124" s="23"/>
-      <c r="E124" s="58"/>
+      <c r="E124" s="52"/>
       <c r="F124" s="25"/>
       <c r="G124" s="25"/>
-      <c r="H124" s="64"/>
+      <c r="H124" s="59"/>
       <c r="I124" s="41"/>
       <c r="J124" s="41"/>
       <c r="K124" s="41"/>
@@ -4265,8 +4268,8 @@
       <c r="N124" s="1"/>
     </row>
     <row r="125" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A125" s="43"/>
-      <c r="B125" s="46" t="s">
+      <c r="A125" s="62"/>
+      <c r="B125" s="57" t="s">
         <v>5</v>
       </c>
       <c r="C125" s="22" t="s">
@@ -4275,14 +4278,14 @@
       <c r="D125" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E125" s="58"/>
+      <c r="E125" s="52"/>
       <c r="F125" s="22" t="s">
         <v>21</v>
       </c>
       <c r="G125" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H125" s="65"/>
+      <c r="H125" s="60"/>
       <c r="I125" s="40" t="s">
         <v>19</v>
       </c>
@@ -4295,16 +4298,16 @@
       <c r="N125" s="1"/>
     </row>
     <row r="126" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A126" s="43"/>
-      <c r="B126" s="47"/>
+      <c r="A126" s="62"/>
+      <c r="B126" s="65"/>
       <c r="C126" s="29" t="s">
         <v>16</v>
       </c>
       <c r="D126" s="23"/>
-      <c r="E126" s="59"/>
+      <c r="E126" s="53"/>
       <c r="F126" s="23"/>
       <c r="G126" s="23"/>
-      <c r="H126" s="65"/>
+      <c r="H126" s="60"/>
       <c r="I126" s="41"/>
       <c r="J126" s="41"/>
       <c r="K126" s="41"/>
@@ -4313,8 +4316,8 @@
       <c r="N126" s="1"/>
     </row>
     <row r="127" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A127" s="43"/>
-      <c r="B127" s="46" t="s">
+      <c r="A127" s="62"/>
+      <c r="B127" s="57" t="s">
         <v>6</v>
       </c>
       <c r="C127" s="22" t="s">
@@ -4330,7 +4333,7 @@
       <c r="G127" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H127" s="65"/>
+      <c r="H127" s="60"/>
       <c r="I127" s="40"/>
       <c r="J127" s="40"/>
       <c r="K127" s="40" t="s">
@@ -4343,8 +4346,8 @@
       <c r="N127" s="1"/>
     </row>
     <row r="128" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A128" s="43"/>
-      <c r="B128" s="47"/>
+      <c r="A128" s="62"/>
+      <c r="B128" s="65"/>
       <c r="C128" s="27"/>
       <c r="D128" s="41" t="s">
         <v>13</v>
@@ -4352,7 +4355,7 @@
       <c r="E128" s="41"/>
       <c r="F128" s="41"/>
       <c r="G128" s="41"/>
-      <c r="H128" s="65"/>
+      <c r="H128" s="60"/>
       <c r="I128" s="41"/>
       <c r="J128" s="41"/>
       <c r="K128" s="41"/>
@@ -4361,8 +4364,8 @@
       <c r="N128" s="1"/>
     </row>
     <row r="129" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A129" s="43"/>
-      <c r="B129" s="46" t="s">
+      <c r="A129" s="62"/>
+      <c r="B129" s="57" t="s">
         <v>7</v>
       </c>
       <c r="C129" s="39" t="s">
@@ -4371,14 +4374,14 @@
       <c r="D129" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E129" s="60"/>
+      <c r="E129" s="54"/>
       <c r="F129" s="22" t="s">
         <v>21</v>
       </c>
       <c r="G129" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H129" s="65"/>
+      <c r="H129" s="60"/>
       <c r="I129" s="40" t="s">
         <v>19</v>
       </c>
@@ -4391,16 +4394,16 @@
       <c r="N129" s="1"/>
     </row>
     <row r="130" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A130" s="43"/>
-      <c r="B130" s="63"/>
+      <c r="A130" s="62"/>
+      <c r="B130" s="58"/>
       <c r="C130" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D130" s="32"/>
-      <c r="E130" s="61"/>
+      <c r="E130" s="55"/>
       <c r="F130" s="32"/>
       <c r="G130" s="33"/>
-      <c r="H130" s="65"/>
+      <c r="H130" s="60"/>
       <c r="I130" s="41"/>
       <c r="J130" s="41"/>
       <c r="K130" s="41"/>
@@ -4409,8 +4412,8 @@
       <c r="N130" s="1"/>
     </row>
     <row r="131" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A131" s="44"/>
-      <c r="B131" s="50" t="s">
+      <c r="A131" s="63"/>
+      <c r="B131" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C131" s="28" t="s">
@@ -4419,14 +4422,14 @@
       <c r="D131" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E131" s="61"/>
+      <c r="E131" s="55"/>
       <c r="F131" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G131" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H131" s="64"/>
+      <c r="H131" s="59"/>
       <c r="I131" s="36" t="s">
         <v>23</v>
       </c>
@@ -4441,22 +4444,22 @@
       <c r="N131" s="1"/>
     </row>
     <row r="132" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A132" s="44"/>
-      <c r="B132" s="51"/>
+      <c r="A132" s="63"/>
+      <c r="B132" s="45"/>
       <c r="C132" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D132" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E132" s="61"/>
+      <c r="E132" s="55"/>
       <c r="F132" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G132" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H132" s="64"/>
+      <c r="H132" s="59"/>
       <c r="I132" s="40" t="s">
         <v>19</v>
       </c>
@@ -4469,16 +4472,16 @@
       <c r="N132" s="1"/>
     </row>
     <row r="133" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A133" s="44"/>
-      <c r="B133" s="51"/>
+      <c r="A133" s="63"/>
+      <c r="B133" s="45"/>
       <c r="C133" s="32"/>
       <c r="D133" s="32"/>
-      <c r="E133" s="62"/>
+      <c r="E133" s="56"/>
       <c r="F133" s="32" t="s">
         <v>16</v>
       </c>
       <c r="G133" s="33"/>
-      <c r="H133" s="64"/>
+      <c r="H133" s="59"/>
       <c r="I133" s="41"/>
       <c r="J133" s="41"/>
       <c r="K133" s="41"/>
@@ -4487,44 +4490,44 @@
       <c r="N133" s="1"/>
     </row>
     <row r="134" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A134" s="44"/>
-      <c r="B134" s="52" t="s">
+      <c r="A134" s="63"/>
+      <c r="B134" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C134" s="54" t="s">
+      <c r="C134" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D134" s="55"/>
-      <c r="E134" s="55"/>
-      <c r="F134" s="55"/>
-      <c r="G134" s="55"/>
-      <c r="H134" s="55"/>
-      <c r="I134" s="55"/>
-      <c r="J134" s="55"/>
-      <c r="K134" s="55"/>
-      <c r="L134" s="56"/>
+      <c r="D134" s="49"/>
+      <c r="E134" s="49"/>
+      <c r="F134" s="49"/>
+      <c r="G134" s="49"/>
+      <c r="H134" s="49"/>
+      <c r="I134" s="49"/>
+      <c r="J134" s="49"/>
+      <c r="K134" s="49"/>
+      <c r="L134" s="50"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
     <row r="135" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A135" s="45"/>
-      <c r="B135" s="53"/>
-      <c r="C135" s="55"/>
-      <c r="D135" s="55"/>
-      <c r="E135" s="55"/>
-      <c r="F135" s="55"/>
-      <c r="G135" s="55"/>
-      <c r="H135" s="55"/>
-      <c r="I135" s="55"/>
-      <c r="J135" s="55"/>
-      <c r="K135" s="55"/>
-      <c r="L135" s="56"/>
+      <c r="A135" s="64"/>
+      <c r="B135" s="47"/>
+      <c r="C135" s="49"/>
+      <c r="D135" s="49"/>
+      <c r="E135" s="49"/>
+      <c r="F135" s="49"/>
+      <c r="G135" s="49"/>
+      <c r="H135" s="49"/>
+      <c r="I135" s="49"/>
+      <c r="J135" s="49"/>
+      <c r="K135" s="49"/>
+      <c r="L135" s="50"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
     </row>
     <row r="136" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
       <c r="A136" s="16"/>
-      <c r="B136" s="48"/>
+      <c r="B136" s="42"/>
       <c r="C136" s="8">
         <v>1</v>
       </c>
@@ -4554,7 +4557,7 @@
     </row>
     <row r="137" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
       <c r="A137" s="17"/>
-      <c r="B137" s="49"/>
+      <c r="B137" s="43"/>
       <c r="C137" s="28" t="s">
         <v>9</v>
       </c>
@@ -4585,10 +4588,10 @@
       <c r="N137" s="1"/>
     </row>
     <row r="138" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A138" s="42" t="s">
+      <c r="A138" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B138" s="46" t="s">
+      <c r="B138" s="57" t="s">
         <v>4</v>
       </c>
       <c r="C138" s="27" t="s">
@@ -4597,14 +4600,14 @@
       <c r="D138" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E138" s="57"/>
+      <c r="E138" s="51"/>
       <c r="F138" s="26" t="s">
         <v>15</v>
       </c>
       <c r="G138" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H138" s="64"/>
+      <c r="H138" s="59"/>
       <c r="I138" s="40" t="s">
         <v>19</v>
       </c>
@@ -4612,19 +4615,21 @@
       <c r="K138" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="L138" s="40"/>
+      <c r="L138" s="40" t="s">
+        <v>37</v>
+      </c>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
     </row>
     <row r="139" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A139" s="43"/>
-      <c r="B139" s="47"/>
+      <c r="A139" s="62"/>
+      <c r="B139" s="65"/>
       <c r="C139" s="27"/>
       <c r="D139" s="23"/>
-      <c r="E139" s="58"/>
+      <c r="E139" s="52"/>
       <c r="F139" s="25"/>
       <c r="G139" s="25"/>
-      <c r="H139" s="64"/>
+      <c r="H139" s="59"/>
       <c r="I139" s="41"/>
       <c r="J139" s="41"/>
       <c r="K139" s="41"/>
@@ -4633,8 +4638,8 @@
       <c r="N139" s="1"/>
     </row>
     <row r="140" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A140" s="43"/>
-      <c r="B140" s="46" t="s">
+      <c r="A140" s="62"/>
+      <c r="B140" s="57" t="s">
         <v>5</v>
       </c>
       <c r="C140" s="22" t="s">
@@ -4643,14 +4648,14 @@
       <c r="D140" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E140" s="58"/>
+      <c r="E140" s="52"/>
       <c r="F140" s="22" t="s">
         <v>21</v>
       </c>
       <c r="G140" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H140" s="65"/>
+      <c r="H140" s="60"/>
       <c r="I140" s="40" t="s">
         <v>19</v>
       </c>
@@ -4663,16 +4668,16 @@
       <c r="N140" s="1"/>
     </row>
     <row r="141" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A141" s="43"/>
-      <c r="B141" s="47"/>
+      <c r="A141" s="62"/>
+      <c r="B141" s="65"/>
       <c r="C141" s="29" t="s">
         <v>16</v>
       </c>
       <c r="D141" s="23"/>
-      <c r="E141" s="59"/>
+      <c r="E141" s="53"/>
       <c r="F141" s="23"/>
       <c r="G141" s="23"/>
-      <c r="H141" s="65"/>
+      <c r="H141" s="60"/>
       <c r="I141" s="41"/>
       <c r="J141" s="41"/>
       <c r="K141" s="41"/>
@@ -4681,8 +4686,8 @@
       <c r="N141" s="1"/>
     </row>
     <row r="142" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A142" s="43"/>
-      <c r="B142" s="46" t="s">
+      <c r="A142" s="62"/>
+      <c r="B142" s="57" t="s">
         <v>6</v>
       </c>
       <c r="C142" s="22" t="s">
@@ -4698,7 +4703,7 @@
       <c r="G142" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H142" s="65"/>
+      <c r="H142" s="60"/>
       <c r="I142" s="40"/>
       <c r="J142" s="40"/>
       <c r="K142" s="40" t="s">
@@ -4711,8 +4716,8 @@
       <c r="N142" s="1"/>
     </row>
     <row r="143" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A143" s="43"/>
-      <c r="B143" s="47"/>
+      <c r="A143" s="62"/>
+      <c r="B143" s="65"/>
       <c r="C143" s="27"/>
       <c r="D143" s="41" t="s">
         <v>13</v>
@@ -4720,7 +4725,7 @@
       <c r="E143" s="41"/>
       <c r="F143" s="41"/>
       <c r="G143" s="41"/>
-      <c r="H143" s="65"/>
+      <c r="H143" s="60"/>
       <c r="I143" s="41"/>
       <c r="J143" s="41"/>
       <c r="K143" s="41"/>
@@ -4729,8 +4734,8 @@
       <c r="N143" s="1"/>
     </row>
     <row r="144" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A144" s="43"/>
-      <c r="B144" s="46" t="s">
+      <c r="A144" s="62"/>
+      <c r="B144" s="57" t="s">
         <v>7</v>
       </c>
       <c r="C144" s="39" t="s">
@@ -4739,14 +4744,14 @@
       <c r="D144" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E144" s="60"/>
+      <c r="E144" s="54"/>
       <c r="F144" s="22" t="s">
         <v>21</v>
       </c>
       <c r="G144" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H144" s="65"/>
+      <c r="H144" s="60"/>
       <c r="I144" s="40" t="s">
         <v>19</v>
       </c>
@@ -4759,16 +4764,16 @@
       <c r="N144" s="1"/>
     </row>
     <row r="145" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A145" s="43"/>
-      <c r="B145" s="63"/>
+      <c r="A145" s="62"/>
+      <c r="B145" s="58"/>
       <c r="C145" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D145" s="32"/>
-      <c r="E145" s="61"/>
+      <c r="E145" s="55"/>
       <c r="F145" s="32"/>
       <c r="G145" s="33"/>
-      <c r="H145" s="65"/>
+      <c r="H145" s="60"/>
       <c r="I145" s="41"/>
       <c r="J145" s="41"/>
       <c r="K145" s="41"/>
@@ -4777,8 +4782,8 @@
       <c r="N145" s="1"/>
     </row>
     <row r="146" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A146" s="44"/>
-      <c r="B146" s="50" t="s">
+      <c r="A146" s="63"/>
+      <c r="B146" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C146" s="28" t="s">
@@ -4787,14 +4792,14 @@
       <c r="D146" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E146" s="61"/>
+      <c r="E146" s="55"/>
       <c r="F146" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G146" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H146" s="64"/>
+      <c r="H146" s="59"/>
       <c r="I146" s="36" t="s">
         <v>23</v>
       </c>
@@ -4809,22 +4814,22 @@
       <c r="N146" s="1"/>
     </row>
     <row r="147" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A147" s="44"/>
-      <c r="B147" s="51"/>
+      <c r="A147" s="63"/>
+      <c r="B147" s="45"/>
       <c r="C147" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D147" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E147" s="61"/>
+      <c r="E147" s="55"/>
       <c r="F147" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G147" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H147" s="64"/>
+      <c r="H147" s="59"/>
       <c r="I147" s="40" t="s">
         <v>19</v>
       </c>
@@ -4837,16 +4842,16 @@
       <c r="N147" s="1"/>
     </row>
     <row r="148" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A148" s="44"/>
-      <c r="B148" s="51"/>
+      <c r="A148" s="63"/>
+      <c r="B148" s="45"/>
       <c r="C148" s="32"/>
       <c r="D148" s="32"/>
-      <c r="E148" s="62"/>
+      <c r="E148" s="56"/>
       <c r="F148" s="32" t="s">
         <v>16</v>
       </c>
       <c r="G148" s="33"/>
-      <c r="H148" s="64"/>
+      <c r="H148" s="59"/>
       <c r="I148" s="41"/>
       <c r="J148" s="41"/>
       <c r="K148" s="41"/>
@@ -4855,44 +4860,44 @@
       <c r="N148" s="1"/>
     </row>
     <row r="149" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A149" s="44"/>
-      <c r="B149" s="52" t="s">
+      <c r="A149" s="63"/>
+      <c r="B149" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C149" s="54" t="s">
+      <c r="C149" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D149" s="55"/>
-      <c r="E149" s="55"/>
-      <c r="F149" s="55"/>
-      <c r="G149" s="55"/>
-      <c r="H149" s="55"/>
-      <c r="I149" s="55"/>
-      <c r="J149" s="55"/>
-      <c r="K149" s="55"/>
-      <c r="L149" s="56"/>
+      <c r="D149" s="49"/>
+      <c r="E149" s="49"/>
+      <c r="F149" s="49"/>
+      <c r="G149" s="49"/>
+      <c r="H149" s="49"/>
+      <c r="I149" s="49"/>
+      <c r="J149" s="49"/>
+      <c r="K149" s="49"/>
+      <c r="L149" s="50"/>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
     </row>
     <row r="150" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A150" s="45"/>
-      <c r="B150" s="53"/>
-      <c r="C150" s="55"/>
-      <c r="D150" s="55"/>
-      <c r="E150" s="55"/>
-      <c r="F150" s="55"/>
-      <c r="G150" s="55"/>
-      <c r="H150" s="55"/>
-      <c r="I150" s="55"/>
-      <c r="J150" s="55"/>
-      <c r="K150" s="55"/>
-      <c r="L150" s="56"/>
+      <c r="A150" s="64"/>
+      <c r="B150" s="47"/>
+      <c r="C150" s="49"/>
+      <c r="D150" s="49"/>
+      <c r="E150" s="49"/>
+      <c r="F150" s="49"/>
+      <c r="G150" s="49"/>
+      <c r="H150" s="49"/>
+      <c r="I150" s="49"/>
+      <c r="J150" s="49"/>
+      <c r="K150" s="49"/>
+      <c r="L150" s="50"/>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
     </row>
     <row r="151" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
       <c r="A151" s="16"/>
-      <c r="B151" s="48"/>
+      <c r="B151" s="42"/>
       <c r="C151" s="8">
         <v>1</v>
       </c>
@@ -4922,7 +4927,7 @@
     </row>
     <row r="152" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
       <c r="A152" s="17"/>
-      <c r="B152" s="49"/>
+      <c r="B152" s="43"/>
       <c r="C152" s="28" t="s">
         <v>9</v>
       </c>
@@ -4953,10 +4958,10 @@
       <c r="N152" s="1"/>
     </row>
     <row r="153" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A153" s="42" t="s">
+      <c r="A153" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B153" s="46" t="s">
+      <c r="B153" s="57" t="s">
         <v>4</v>
       </c>
       <c r="C153" s="27" t="s">
@@ -4965,14 +4970,14 @@
       <c r="D153" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E153" s="57"/>
+      <c r="E153" s="51"/>
       <c r="F153" s="26" t="s">
         <v>15</v>
       </c>
       <c r="G153" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H153" s="64"/>
+      <c r="H153" s="59"/>
       <c r="I153" s="40" t="s">
         <v>19</v>
       </c>
@@ -4985,14 +4990,14 @@
       <c r="N153" s="1"/>
     </row>
     <row r="154" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A154" s="43"/>
-      <c r="B154" s="47"/>
+      <c r="A154" s="62"/>
+      <c r="B154" s="65"/>
       <c r="C154" s="27"/>
       <c r="D154" s="23"/>
-      <c r="E154" s="58"/>
+      <c r="E154" s="52"/>
       <c r="F154" s="25"/>
       <c r="G154" s="25"/>
-      <c r="H154" s="64"/>
+      <c r="H154" s="59"/>
       <c r="I154" s="41"/>
       <c r="J154" s="41"/>
       <c r="K154" s="41"/>
@@ -5001,8 +5006,8 @@
       <c r="N154" s="1"/>
     </row>
     <row r="155" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A155" s="43"/>
-      <c r="B155" s="46" t="s">
+      <c r="A155" s="62"/>
+      <c r="B155" s="57" t="s">
         <v>5</v>
       </c>
       <c r="C155" s="22" t="s">
@@ -5011,14 +5016,14 @@
       <c r="D155" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E155" s="58"/>
+      <c r="E155" s="52"/>
       <c r="F155" s="22" t="s">
         <v>21</v>
       </c>
       <c r="G155" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H155" s="65"/>
+      <c r="H155" s="60"/>
       <c r="I155" s="40" t="s">
         <v>19</v>
       </c>
@@ -5031,16 +5036,16 @@
       <c r="N155" s="1"/>
     </row>
     <row r="156" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A156" s="43"/>
-      <c r="B156" s="47"/>
+      <c r="A156" s="62"/>
+      <c r="B156" s="65"/>
       <c r="C156" s="29" t="s">
         <v>16</v>
       </c>
       <c r="D156" s="23"/>
-      <c r="E156" s="59"/>
+      <c r="E156" s="53"/>
       <c r="F156" s="23"/>
       <c r="G156" s="23"/>
-      <c r="H156" s="65"/>
+      <c r="H156" s="60"/>
       <c r="I156" s="41"/>
       <c r="J156" s="41"/>
       <c r="K156" s="41"/>
@@ -5049,8 +5054,8 @@
       <c r="N156" s="1"/>
     </row>
     <row r="157" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A157" s="43"/>
-      <c r="B157" s="46" t="s">
+      <c r="A157" s="62"/>
+      <c r="B157" s="57" t="s">
         <v>6</v>
       </c>
       <c r="C157" s="22" t="s">
@@ -5066,7 +5071,7 @@
       <c r="G157" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H157" s="65"/>
+      <c r="H157" s="60"/>
       <c r="I157" s="40"/>
       <c r="J157" s="40"/>
       <c r="K157" s="40" t="s">
@@ -5079,8 +5084,8 @@
       <c r="N157" s="1"/>
     </row>
     <row r="158" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A158" s="43"/>
-      <c r="B158" s="47"/>
+      <c r="A158" s="62"/>
+      <c r="B158" s="65"/>
       <c r="C158" s="27"/>
       <c r="D158" s="41" t="s">
         <v>13</v>
@@ -5088,7 +5093,7 @@
       <c r="E158" s="41"/>
       <c r="F158" s="41"/>
       <c r="G158" s="41"/>
-      <c r="H158" s="65"/>
+      <c r="H158" s="60"/>
       <c r="I158" s="41"/>
       <c r="J158" s="41"/>
       <c r="K158" s="41"/>
@@ -5097,8 +5102,8 @@
       <c r="N158" s="1"/>
     </row>
     <row r="159" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A159" s="43"/>
-      <c r="B159" s="46" t="s">
+      <c r="A159" s="62"/>
+      <c r="B159" s="57" t="s">
         <v>7</v>
       </c>
       <c r="C159" s="39" t="s">
@@ -5107,14 +5112,14 @@
       <c r="D159" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E159" s="60"/>
+      <c r="E159" s="54"/>
       <c r="F159" s="22" t="s">
         <v>21</v>
       </c>
       <c r="G159" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H159" s="65"/>
+      <c r="H159" s="60"/>
       <c r="I159" s="40" t="s">
         <v>19</v>
       </c>
@@ -5127,16 +5132,16 @@
       <c r="N159" s="1"/>
     </row>
     <row r="160" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A160" s="43"/>
-      <c r="B160" s="63"/>
+      <c r="A160" s="62"/>
+      <c r="B160" s="58"/>
       <c r="C160" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D160" s="32"/>
-      <c r="E160" s="61"/>
+      <c r="E160" s="55"/>
       <c r="F160" s="32"/>
       <c r="G160" s="33"/>
-      <c r="H160" s="65"/>
+      <c r="H160" s="60"/>
       <c r="I160" s="41"/>
       <c r="J160" s="41"/>
       <c r="K160" s="41"/>
@@ -5145,8 +5150,8 @@
       <c r="N160" s="1"/>
     </row>
     <row r="161" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A161" s="44"/>
-      <c r="B161" s="50" t="s">
+      <c r="A161" s="63"/>
+      <c r="B161" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C161" s="28" t="s">
@@ -5155,14 +5160,14 @@
       <c r="D161" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E161" s="61"/>
+      <c r="E161" s="55"/>
       <c r="F161" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G161" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H161" s="64"/>
+      <c r="H161" s="59"/>
       <c r="I161" s="36" t="s">
         <v>23</v>
       </c>
@@ -5177,22 +5182,22 @@
       <c r="N161" s="1"/>
     </row>
     <row r="162" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A162" s="44"/>
-      <c r="B162" s="51"/>
+      <c r="A162" s="63"/>
+      <c r="B162" s="45"/>
       <c r="C162" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D162" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E162" s="61"/>
+      <c r="E162" s="55"/>
       <c r="F162" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G162" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H162" s="64"/>
+      <c r="H162" s="59"/>
       <c r="I162" s="40" t="s">
         <v>19</v>
       </c>
@@ -5205,16 +5210,16 @@
       <c r="N162" s="1"/>
     </row>
     <row r="163" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A163" s="44"/>
-      <c r="B163" s="51"/>
+      <c r="A163" s="63"/>
+      <c r="B163" s="45"/>
       <c r="C163" s="32"/>
       <c r="D163" s="32"/>
-      <c r="E163" s="62"/>
+      <c r="E163" s="56"/>
       <c r="F163" s="32" t="s">
         <v>16</v>
       </c>
       <c r="G163" s="33"/>
-      <c r="H163" s="64"/>
+      <c r="H163" s="59"/>
       <c r="I163" s="41"/>
       <c r="J163" s="41"/>
       <c r="K163" s="41"/>
@@ -5223,38 +5228,38 @@
       <c r="N163" s="1"/>
     </row>
     <row r="164" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A164" s="44"/>
-      <c r="B164" s="52" t="s">
+      <c r="A164" s="63"/>
+      <c r="B164" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C164" s="54" t="s">
+      <c r="C164" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D164" s="55"/>
-      <c r="E164" s="55"/>
-      <c r="F164" s="55"/>
-      <c r="G164" s="55"/>
-      <c r="H164" s="55"/>
-      <c r="I164" s="55"/>
-      <c r="J164" s="55"/>
-      <c r="K164" s="55"/>
-      <c r="L164" s="56"/>
+      <c r="D164" s="49"/>
+      <c r="E164" s="49"/>
+      <c r="F164" s="49"/>
+      <c r="G164" s="49"/>
+      <c r="H164" s="49"/>
+      <c r="I164" s="49"/>
+      <c r="J164" s="49"/>
+      <c r="K164" s="49"/>
+      <c r="L164" s="50"/>
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
     <row r="165" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A165" s="45"/>
-      <c r="B165" s="53"/>
-      <c r="C165" s="55"/>
-      <c r="D165" s="55"/>
-      <c r="E165" s="55"/>
-      <c r="F165" s="55"/>
-      <c r="G165" s="55"/>
-      <c r="H165" s="55"/>
-      <c r="I165" s="55"/>
-      <c r="J165" s="55"/>
-      <c r="K165" s="55"/>
-      <c r="L165" s="56"/>
+      <c r="A165" s="64"/>
+      <c r="B165" s="47"/>
+      <c r="C165" s="49"/>
+      <c r="D165" s="49"/>
+      <c r="E165" s="49"/>
+      <c r="F165" s="49"/>
+      <c r="G165" s="49"/>
+      <c r="H165" s="49"/>
+      <c r="I165" s="49"/>
+      <c r="J165" s="49"/>
+      <c r="K165" s="49"/>
+      <c r="L165" s="50"/>
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
     </row>
@@ -23918,6 +23923,9 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:L30"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:L15"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="E9:E13"/>
@@ -23927,9 +23935,6 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.43333333333333335" right="0.2" top="0.2298611111111111" bottom="0.3298611111111111" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
